--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7E4BC"/>
+        <bgColor rgb="00D7E4BC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +51,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +426,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="173" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Titles</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>New Administration Begins Litigation About-Faces</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Plattsburgh moves forward with investigation into alleged police corruption, fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arne Slot hit with misconduct charge by FA for red card as Liverpool and Everton also face punishment after chaotic end to Merseyside derby</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Copemish man's lawsuit over Benzie rights violations nears settlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Former defense contractor CEO sentenced for COVID-relief fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Neon Machines settles lawsuit with former investors</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lawsuit alleges Oregon ballot measure for cannabis industry unions is unconstitutional</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RAM Diesel Lawsuit Against FCA And Cummins Moves Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mexico threatens US gunmakers with fresh legal action</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BakerHostetler Can't Keep Ga. Malpractice Suit In Fed. Court</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Royal allegedly abused TV presenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIA nabs suspect in visa fraud case</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Man City 'beat' Premier League in legal battle with serious impact on rival clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fraud Alert: The SVG Image File Scam You Need To Watch Out for</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dearborn orders Fairlane Town Center snowplowed, saying owner failed to do so</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kash Patel Failed to Disclose Companies Involved in a Million-Dollar Land Deal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>YouTuber Logan Paul Challenges Messi to Boxing Bout Amid Legal Dispute</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yummy Dino Buddies chicken nuggets class action alleges false ‘all natural’ claims</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HUD faces massive staff cuts, while a lawsuit buys time for CFPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>John Stankey elected Chairman of AT&amp;T's Board of Directors, William Kennard named Lead Independent Director</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The Shyft Group Announces Quarterly Dividend</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VULCAN INCREASES QUARTERLY DIVIDEND ON COMMON STOCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lear Declares Quarterly Cash Dividend</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MDU Resources Announces Plans to Invest in Badger Wind Farm</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Citius Oncology, Inc. Reports Fiscal First Quarter 2025 Financial Results and Provides Business Update</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Clear Channel Outdoor Holdings, Inc. to Participate in J.P. Morgan's 2025 Global Leveraged Finance Conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>$40K Embezzled From Preschool Spent On Luxury Goods, Vacations: Cops</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Caribou Biosciences, Inc. Sued for Securities Law Violations - Contact The Gross Law Firm Before February 24, 2025 to Discuss Your Rights - CRBU</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Attorney General Josh Kaul Issues Statement in Case Involving DOGE’s Access to Confidential Treasury Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Former Albuquerque property manager settles sexual harassment lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Alleged Sexual Harassment: Nothing Found On UNICAL Professor’s Phone – Forensic Analyst</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Charges against former West Virginia city clerk accused of embezzlement dropped without prejudice to allow further investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>West Sub’s revoked accreditation leaves medical residents uncertain about future</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Johnson City commissioners vote unanimously to approve settlement in bribery lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oyo Kingmakers Write Federal High Court, Allege Governor Makinde's Plot To Unlawfully Arrest, Detain Them</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NMSP officer placed on leave amid DWI scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Former Labour adviser brands Rachel Reeves LinkedIn scandal 'so embarrassing'</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>The RAF cancer scandal that killed Prince William’s flying instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Missouri sues Starbucks over its diversity programs</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>"Find a coward to file your motion": Adams prosecutor resigns after being asked to drop charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Parents of Knoxville woman who died in 2023 allege in lawsuit her husband killed her</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Twenty red states back DOGE in lawsuit challenging access to Treasury system</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Utah's AG addresses concerns about lawsuit that could change Section 504 accommodations</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Idexx Laboratories Director Resigns, Board Size Reduced</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Two new suspects added to Steinhoff fraud case</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Police: New York man allegedly involved in Palmyra hit-and-run hid in a trash can</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Explained: Manchester City's legal battle with Premier League over financial rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Man City win huge legal battle against Premier League</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Future of Toronto's historic El Mocambo threatened by legal battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp; Check, LLP Class Action Announcement NMRA: A Securities Fraud Class Action Lawsuit Was Filed Against Neumora Therapeutics, Inc. (NMRA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ONE Gas to Participate in UBS, Morgan Stanley, and Jefferies Conferences</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Karman Announces Closing of its Upsized Initial Public Offering, with Full Exercise of Over-Allotment Option</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sealed Air Announces Leadership Changes and Re-affirms Full Year 2024 Outlook</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SUBURBAN PROPANE AND NASCAR UNVEIL PROPANE-POWERED TRACK DRYER AT THE DAYTONA 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AMGEN TO PRESENT AT CITI'S 2025 VIRTUAL ONCOLOGY LEADERSHIP SUMMIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Harley-Davidson, Inc. Declares Dividend</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025 CHICAGO AUTO SHOW HEADS INTO FINAL WEEKEND</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Bradford Health Services Opposes New Veteran Focused Healthcare Center, which is Backed by Coast to Coast Charitable Corporation</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>100-year-old Global Faith Leader Announces an Open House Celebration for the Salt Lake Temple</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>INTRODUCING SIMPLE THEORY WINE CO: MILLENNIAL AND GEN Z COUSINS MAKING EUROPEAN VARIETAL WINES LAUNCH NEW WINERY AND TASTING LOUNGE IN MARYLAND WINE COUNTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sotheby's International Realty Expands in Tennessee</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ALAR INVESTOR ALERT: Robbins Geller Rudman &amp; Dowd LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>INVESTOR ALERT: Faruqi &amp; Faruqi, LLP Investigates Claims on Behalf of Investors of Integral Ad Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Alleged Theft of Thousands by Hudson Valley Preschool CFO Exposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Judge rules Pittsburgh Public Schools didn't have standing to file lawsuit ordering property reassessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Navi founder and CEO Sachin Bansal resigns, company appoints new CEOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Christian counselors’ lawsuit challenges ordinances against ‘conversion therapy’</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tennessee city to pay $28M to settle class action lawsuit in case of alleged serial rapist</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MODV Investor Alert: A Securities Fraud Class Action Lawsuit Has Been Filed Against ModivCare Inc. (MODV) - Contact Kessler Topaz Meltzer &amp; Check, LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AG Alan Wilson changes stance on disability civil rights lawsuit following grassroots advocacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CFPB's acting director was illegally appointed: Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Vegas business owner indicted for allegedly running cryptocurrency Ponzi scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Legal Action Initiated Against 50 Social Media Accounts For Spreading Misinformation On Maha Kumbh</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>‘False Allegations’: Philip Agbese Demands Binance Executive Provide Bribery Evidence or Face Legal Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>No credibility! Baseless allegations that Bolt’s money did not reach SSL – Says Attorney.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Florida Attorney Indicted for Bribery and Fraud in Manhattan, Accused of Paying Off DEA Agent for Confidential Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Employees helming the U.S. nuclear stockpile among those terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AHF Products' CEO resigns, interim CEO named</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Southern California business owner defrauded millions from clients, evaded taxes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Man City win legal battle against Premier League's 'unlawful' sponsorship rules as English top-flight fears huge compensation claims from clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Independent Commission Backs Manchester City in Legal Dispute with the Premier League</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Whistleblower accuses TSMC of job discrimination. Chip company calls allegations 'lurid'</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>There is Love in the Air as Avelo Airlines Celebrates Valentine's Day with Free and Discounted Flights</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FDA Approves First Rapid-Acting Insulin Biosimilar Product for Treatment of Diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AANP Supports Legislation Strengthening Patient Access to Health Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tori Spelling faces backlash after stripping down for massage from son</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bay St. Louis woman charged with credit card fraud, embezzlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-02-14 | Levi &amp; Korsinsky Reminds Shareholders of a Lead Plaintiff Deadline of March 25, 2025 in Novo Nordisk A/S Lawsuit - NVO | NYSE:NVO | Press Release</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Knox County School Board chair defends support for school vouchers after backlash</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Settlement reached in mill town’s multi-million dollar lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Enbridge CEO: Tariffs Not a Concern but Present Chance for Reform in Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Netflix Finally Comments on ‘Bummer’ ‘Emilia Perez’ Scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Removed Doctor Who episode returns to BBC iPlayer following scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Morgan Stanley Ordered to Pay $843,000 to Senior Scam Victim</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>IAS Investor Alert: A Securities Fraud Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SF Valley Man to Plead Guilty to Alleged $5.9M Ponzi Scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Prominent Albuquerque attorney admits to running ‘DWI Enterprise’ scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oregon, 11 other states file lawsuit to curb Department of Government Efficiency's power</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals Win Lawsuit Brought by Former Team VP</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Diddy accused of threatening, assaulting woman in 2016: Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Family of slain protester faces legal action, pressure in Sanandaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NSW government agrees to settle with men who allege they were abused by teacher Helga Lam</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sensitive Bank Data Set for Deletion in CFPB Purge, Ex-Aide Says</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ex-JPMorgan Atty Pleads Guilty To NYC Housing Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fatigue failure of prefabricated crack HTPB(hydroxyl-terminated polybutadiene) propellant under strain control</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CFPB's new leadership begins staff purge with dozens of employees terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>FCS Football: FCS Teams That Failed To Meet Expectations In 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Moss Landing battery fire: Residents sue Vistra, others for damages</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Wine Country restaurant founder embezzled money, drank $250,000 worth of wine, lawsuit alleges</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CMS Energy Declares Quarterly Dividend on Cumulative Redeemable Perpetual Preferred Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CREFC Announces its Annual High Yield, Distressed Assets, &amp; Servicing Conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>AGC of California Announces Constructor Award Winners at 2025 Installation &amp; Awards Gala and Installs New Leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Dignify Therapeutics Highlights Clinical Development Plans at BIO CEO &amp; Investor Conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The Dechert Impact Fellowship Program Now Open to Graduating Law Students Affected by Federal Hiring Freeze</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Wonderfront Music &amp; Arts Festival 2025 - Tickets On Sale TODAY @ 10am pst!</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Highmark Health names Mark Sevco as president of Allegheny Health Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DAVID YURMAN ANNOUNCES EIZA GONZÁLEZ AS GLOBAL BRAND AMBASSADOR WITH NEWEST SCULPTED CABLE CAMPAIGN</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Premier League issues statement after losing Man City legal battle - and Liverpool is impacted</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Senator Gallivan Issues Statement on Lockdown at Collins Correctional Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Meghan ‘upset and stressed’ over backlash</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Torstar sues Meta for unlawful breach of contract after online news bill came into effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Former Calif. 'Teacher of the Year' pleads guilty to sexual misconduct with students</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Attorney General Ken Paxton Stops Radical Abortionist from Unlawfully Supplying Dangerous Drugs to Kill Unborn Babies</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fires, squatting, scandal: S.F.’s last public housing gets new management</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Asahi Linux lead resigns from Mac-based distro after tumultuous kernel debate</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>City employees file wage theft lawsuit against Seattle stemming from new payroll system</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Claressa Shields Calls Out Haters And Threatens Legal Action After Failed Drug Test, PED Rumors</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Del Valle Man Detained on Allegations of Injuring Toddler, Travis County Jail Awaits Determination of Charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Compliance check lands Folsom man behind bars on multiple drug related allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Former Yellow Springs doctor takes plea deal after allegations of patient abuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>HPD opens fraud investigation into Huntsville College Preparatory School</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Misconduct hearing for former officer who 'accessed records for own gain'</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Keokuk city administrator terminated following weekend OWI arrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>News: Half of CDC "disease detectives" terminated. DOGE takes aim at US disease surveillance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Have Blake Lively and Justin Baldoni reached an agreement of sorts? Here's what the actors told the court</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SEC settles misconduct charges against One Oak Capital, Michael DeRosa By Investing.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Family of Kentucky man, mistakenly shot and killed by police, files lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Popular Atlanta brewery engaged in legal dispute with Molson Coors over ‘Monday Night’ trademark</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Valero refinery explosion sparks lawsuit by 5 men who say they were injured</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Florida Criminal Defense Attorney Indicted for Bribing DEA Agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ADCOLOR Opens Nominations and Applications for 2025 Awards and Talent Programs</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Audriix Releases "Where the Boys Are" on February 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>IEEE Study Reveals Breakthroughs in High-Performance Photon Detectors</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Pregnant wife slams husband’s ‘incredible’ Valentine’s Day gift — but faces backlash: ‘Why can’t you just be happy?’</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fillmore County Hospital Announces Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Yazoo Valley Power Facing Privacy Suit Over August Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WBA INVESTOR ALERT: Robbins Geller Rudman &amp; Dowd LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Woman Convicted for Mass-Mailing Sexual Misconduct Accusations About Former Teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>$60K in damages estimated from Shelby County house fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Settlement reached in North Dakota lawsuit alleging intimidation by white nationalist hate group</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Educational reform and what we can learn from the Enron scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ICLR Investor Alert: A Securities Fraud Class Action Lawsuit Has Been Filed Against ICON Public Limited Company (ICLR) - Contact Kessler Topaz Meltzer &amp; Check, LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Greenfield man accused of embezzling more than $400,000 as armored truck driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Former SLO County probation officer accused of embezzling more than $100,000 from union</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Family of Doug Harless obtain lawyer in civil lawsuit to 'seek justice' - LEX 18 News</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Minnesota judge: lawsuit over UnitedHealth use of AI can continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Maryland woman pleads guilty to theft of over $60,000....to pay restitution in another theft case</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>OAG: Frederick County woman stole $65K to pay restitution in another theft case</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Woman convicted after stealing 65K to pay restitution in different case</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Watchdogs probe DOGE’s access to Treasury payments system, Musk’s fraud allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Worcester will not probe two city councilors' allegations of transphobia, discrimination</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>'Brazen criminality': Allegations of 'quid pro quo' fly after border czar’s admission</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Investigation into fraud targeting small businesses</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Federal prosecutor will sign motion to dismiss Adams charges in bid to save colleagues' jobs, sources say</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MSU agrees to pay ousted business college dean $640,000 in new role</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Man City Win Legal Battle as Premier League APT Rules Decision Made</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Waterloo schools assistant principal resigns following incident with student</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Greenpeace International files lawsuit against Energy Transfer in first use of EU anti-SLAPP Directive</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sunoco LP Files 2024 Annual Report on Form 10-K</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NeuralCure AI Announces Breakthrough in AI-Powered Healthcare, Completing Decades of Medical Research in Moments</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ATLANTIS PARADISE ISLAND ANNOUNCES TALENT AND EVENTS FOR 2025 NASSAU PARADISE ISLAND WINE &amp; FOOD FESTIVAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Appier provides strong FY25 guidance and a sustainable, profitable growth trajectory</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>REMSA Health Experiences Cyberattack, Raising Questions of a Possible Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>‘Price-fixing’ arrangement alleged between plant hire firms</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NJ restaurant owner accused of drugging, raping woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Bay St. Louis charged with credit card fraud, embezzlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>FMC INVESTOR ALERT: Bronstein, Gewirtz and Grossman, LLC Announces that FMC Corporation Stockholders with Substantial Losses Have Opportunity to Lead Class Action Lawsuit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Investor Alert: Robbins LLP Informs Stockholders of the Edison International Class Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Mayor Adams Case Fallout Tests DOJ Internal Misconduct Office</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sierra Club, WVPSC Work Toward Settlement Of Federal Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Netflix calls ‘Emilia Pérez’ scandal ‘a bummer’</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Alanyaspor's Korean star gets suspended sentence in sex-video scandal | Daily Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Prince Andrew Rocked by Another Scandal After He Thought ‘He’d Put the Epstein’ One ‘Behind Him’</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>YouTube Channel Taldeok Camp Owner Gets Ordered To Pay 76 Million Krw Over Defaming BTS’ V &amp; Jungkook</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A185"/>
+  <dimension ref="A1:A202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,6 +1737,125 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Besler launches legal action against District</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Legal action against 'stink bomb' landfill dropped</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Misconduct allegations filed against Tarver Elementary teacher within Belton ISD</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NYC Mayor Adams calls quid pro quo allegations "silly"</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Two Alberta private surgery clinic contracts in limbo amid allegations in scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TIMELINE: A full look at the DWI corruption scandal involving several departments</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Cannabis company Aphria agrees to settle class-action lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Legal battle ensues between Chemainus Public Market, Blake’s Fish and Chips</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Shuffle Board: Hanesbrands CEO Departs, Levi’s Restructures C-Suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Clearing Firm Faces SEC Charges, Small Firm Movement Tarnished</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Northampton station, gas delivery company, fined for waiting to report spill</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oncolytics Biotech® Announces Receipt of Nasdaq Notification Letter Regarding Minimum Bid Price Deficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Aslan Energy Capital Signs MOU to Supply 100,000 TPA of Sustainable Hydrogen from its Sonora, Mexico facility to California-Based CalYan XGH Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>NAIC Announces 2025 Initiatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>IT Leaders Can Strengthen Vendor Partnerships With Business-Aligned MSP Agreements, Says Info-Tech Research Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Suspended Exxaro Resources’ CEO steps down amid governance probe</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Coast Guard Suffers Data Breach, Pay Delayed for 1,135 Members</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A202"/>
+  <dimension ref="A1:A216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,6 +1856,104 @@
         </is>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GO INVESTOR ALERT: Bronstein, Gewirtz and Grossman, LLC Announces that Grocery Outlet Holding Corp. Investors Have Opportunity to Lead Class Action Lawsuit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>County sues Dayton’s Water Department for alleged ‘breach of contract’</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Montgomery County sues City of Dayton Water Department for breach of contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Republicans Target $100 Billion in Alleged COVID-Era Unemployment Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tarver Elementary teacher placed on leave after allegations of misconduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Alberta cabinet minister calls for removal of health minister amid corruption scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CEO charged by NCD Police</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>AG Jackley States Lawsuit Will Not Eliminate Section 504 School Disability Accommodations</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Wayne County deputy awarded $1.7M in lawsuit against driver who hit hit while directing traffic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michigan Attorney General files brief in support of lawsuit to block transgender military ban</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Prof. Irina Manta Discusses Lawsuit Against AI Company for Alleged Copyright Infringement</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Seventh attorney resigns after refusing to dismiss case against NYC Mayor Eric Adams</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Farsley Celtic chairman resigns after abuse from supporters</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Local lawyer arrested for harassment</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A216"/>
+  <dimension ref="A1:A227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="173" customWidth="1" min="1" max="1"/>
+    <col width="174" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1954,6 +1954,83 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>AG Nessel files lawsuit, calling DOGE actions unconstitutional</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Labaton Keller Sucharow LLP Announces Securities Class Action Lawsuit Filed Against FMC Corporation and Certain Executives</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>EPIX STOCK NEWS: EPIX Shareholders with Large Losses Should</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CROX STOCK NEWS: CROX Shareholders with Large Losses Should</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Columbus jury renders verdict in $2.5 billion lawsuit against Ford Motor Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Judge rejects former Clinch Co. sheriff’s claim, rules sheriff not immune in excessive force lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Rosen Law Firm Urges FMC Corporation (NYSE: FMC) Stockholders to Contact the Firm for Information About Their Rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>AANA Applauds Reintroduction of The Improving Care and Access to Nurses Act in 119th Congress</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Consumer Watchdog Agrees With Insurance Commissioner Lara That State Farm Needs To Provide More Information Before Getting Rate Hike, But Should Be Provided in Full Hearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>How losing legal battle with Man City over sponsorship rules exposed the Premier League - and why the lame duc</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>NJ attorney, ritzy yacht club owner arrested for beating man in Miami club on New Year’s Day</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A227"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,6 +2031,139 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jackley clarifies the focus of multi-state Section 504 lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Lawsuit filed against Keller ISD alleges violations of Voting Rights Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20 red states, including Arkansas, back DOGE in lawsuit challenging access to Treasury system</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Prof. James Sample Explains Federal Lawsuit Against New York’s Green Light Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Law’s Sharona Hoffman discusses an insulin lawsuit recently filed by the City of Columbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Elmore County lawyer arrested for harassment</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Fla. Lawyer Allegedly Smashed Plate Over Fellow Wedding Attendee’s Head When He Allowed Others to Cut in Buffet Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Attorney general threatening legal action against Indianapolis authorities, schools</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>'Outrageous and false': How those named in the AHS lawsuit are responding to the allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GloRilla Denies BBL Rumors as She Preps for ‘The Glorious Tour’</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ED seizes Rs 170-cr worth bank deposits in probe against ‘fraud’ forex trading platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DOGE Posts — Then Redacts — What Appears to Be Sensitive HUD Contract Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tarver Elementary teacher placed on leave amid misconduct allegations - KWKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mobile Mardi Gras queen accused of nearly $1.5M embezzlement scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Vernon business owner accused of child sex crimes - KFDX</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mass. daycare co-owner accused of assaulting children in her care</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>B1/B2 Visa Revoked -Traveler Finds Out at Airport</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>EHarley Street: Calls for inquiry into GP management 'scandal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Netflix Addresses Controversy Surrounding Karla Sofía Gascón Amid ‘Emilia Pérez’ Scandal</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A246"/>
+  <dimension ref="A1:A323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="174" customWidth="1" min="1" max="1"/>
+    <col width="180" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2164,6 +2164,545 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>INVESTOR ALERT: Shareholder Class Action Lawsuit Filed</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>The surprising secret life of Scotland's gay king that caused scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Airport manager abruptly resigns after brief tenure</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Real Madrid defender facing potential legal action over sex video scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SEC Seeks 28 More Days in Coinbase Legal Battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Naomi issues a statement after Jade Cargill's alleged attackers are revealed on SmackDown</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Michigan State gave ousted business dean new title, lucrative salary to mend fences</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Lawyer for Vince McMahon says criminal probe ‘definitively concluded’ with no charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>TMDX INVESTOR ALERT: TransMedics Group, Inc. Investors with Substantial Losses Have Opportunity to Lead Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Single's Inferno Season 4 star Theo Jang faces backlash over Kanye West Instagram post: 'He is such an Americaboo'</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sexual misconduct allegations rocked this Mass. school last year; what’s happening now</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>The Playbook: CEO exits hit a new record high in 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Brad Pitt, Angelina Jolie reach divorce settlement after bitter 8-year legal battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Comic takes mickey out of real chief constable's limo scandal in new TV series</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Ryan Edwards Welcomes Baby, Ordered to Pay Child Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Ex-Hawaii CEO gets 87 months for COVID-relief wire fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>The Gross Law Firm Notifies TELUS International (Cda) Inc. Inves</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Two arrested for embezzling funds using ‘Little Hearts’ project name</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Police seek man in fraud investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Corey Perry releases statement after having contract terminated by Blackhawks</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Blake Lively Intensifies Legal Battle with Justin Baldoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Legal battle over sacked migrant garment workers</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Blake Lively Demands Justin Baldoni’s Phone Records In Legal Battle Over Alleged Smear Campaign: “Will Expose The Full Web Of…”</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Split verdict in contractor fraud case</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mamata Banerjee govt failed to stop atrocities against women: BJP leader Amit Malviya</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Vatican bank director, his deputy resign amid scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>How Mastercard’s CFO views the wave of AI fraud hitting the financial sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Transgender controversy in Texas women’s sports: Two ISDs under investigation by Attorney General</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>State Attorney's Office launches criminal investigation into ferry tragedy</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Federal lawsuit challenges Keller ISD election rules amid district split proposal</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Lawyer gives take on Missouri AG Andrew Bailey filing 'reverse discrimination' lawsuit against Starbucks</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jay-Z's legal battle ends as controversial lawsuit is withdrawn</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Michael Asare Bediako resigns as CEO of Millennium Development Authority</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Lt. Gov. issues statement on passage of SB4, SJR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Former banking official imprisoned on charges of embezzlement of 12.3 million dinars</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>NJ town's lawsuit against Islamic congregation has been dismissed</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>The Inspector General Scandal That Wasn’t</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Academic Senate Session Sees Sudden Resignation over Alleged Administration Misconduct, Receives Info on How to Handle ICE On-Campus, and Continues Contention over the CSU Budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>When the MIIF CEO is accused of transferring US$10 million to an odd firm, netizens respond, '30 days in office mpo nie.'</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Intel Datacenter Chief Departs To Run Nokia – Now What?</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>DOCTOR STRANGE Director Scott Derrickson Departs SNOWPIERCER Over Disagreements With Showrunner</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SC military school covered up dean, councilman's sexual relationship with student, lawsuit says</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Kottayam ragging accused students likely to be terminated; Nursing council mulls strict actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ALAR Investors Have Opportunity to Lead Alarum Technologies Ltd. Securities Fraud Lawsuit with the Schall Law Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Digital Health Co. Beats Some Claims In SPAC Investor Suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Solar Tech Co. SunPower Beats Investor Suit Over Defects</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Morgan Stanley’s Jon Pruzan, Onetime CEO Candidate, Exits Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Australian socialite left at the altar lived a life of parties, privilege and scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>CIDER THIEF ‘SCREAMING OUT FOR HELP’ ORDERED TO PAY £11 TO CO-OP</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Cardlytics (CDLX) Faces Investor Lawsuit Over Growth Projections – Hagens Berman</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>WBA INVESTOR ALERT: Walgreens Boots Alliance, Inc. Investors with Substantial Losses Have Opportunity to Lead Investor Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Vantage Honored with Three Prestigious Awards at the 5th Annual Business Tabloid Awards</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Florida State Seminoles' Legal Battle: Settlement on the Horizon? | UNC to SEC? - Local 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Endangering the lives of judges and prosecutors/ State Police justifies the scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Air Canada was ordered to pay a passenger $2,000 for delayed luggage. Instead, it's taking him to court</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ECOWAS Court Rejects NGOs’ Rights Violation Claims Over Lagdo Dam</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>NYC Mayor Adams on allegations by Danielle Sassoon of quid pro quo: "This is silly"</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>The feds opened an investigation into a side-hustle company helping pump out AI-generated books, records reveal</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>California joins 21 other states to fight NIH cuts that threaten millions in UC, CSU funding</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>CM Omar Abdullah Calls for Fair Hearing for Terminated Employees, Criticizes Waqf Bill</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>SMTC SHAREHOLDER ALERT: Semtech Corp. Investors are Notified of Pending Securities Fraud Investigation and are Urged to Contact BFA Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mexican President Threatens to File Suit over ‘Gulf of America’</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>CEO, company director remanded as MACC widens RM2.6mil false claims investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>NXT CLASS ACTION: Nextracker Inc. 15% Stock Drop Triggers</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>U.S. Attorney declines to issue charges from FBI investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>The Gross Law Firm Announces Class Actions on Behalf of Shareholders of EH, CYDY and LDOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Kanye West faces new legal setbacks amid harassment and discrimination allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Contra Costa Health CEO is leaving months into DOJ criminal investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>3 more J&amp;K govt employees terminated by L-G, Omar says should be given a chance to prove innocence first</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>J&amp;K: Three govt employees terminated for their links with terrorists</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>City Hall probe into Afdlin's alleged misconduct in final stages</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>5 big-name golfers who failed to make the cut at Genesis Invitational 2025 ft. Viktor Hovland</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Peloton wins dismissal of shareholder lawsuit over seat post recall</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Houston ISD to join lawsuit against social media companies over student mental health</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>NY Doctor Fined $100,000+ for Providing an Abortion</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ALAR INVESTOR ALERT: Alarum Technologies Ltd. Investors with Substantial Losses Have Opportunity to Lead Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Real Estate Executive Kevin Gao Charged in $30 Million Bank Fraud</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A323"/>
+  <dimension ref="A1:A554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="180" customWidth="1" min="1" max="1"/>
+    <col width="214" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2703,6 +2703,1623 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Expert blasts Fla. teacher for response after backlash for showing Disney movie to class</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>BT is DOWN: Company issues statement as thousands of customers report internet outages and being unable to acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Armie Hammer speaks up and rejects cannibal allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Ripple (XRP) Price Faces Turmoil: Will Legal Clarity Spark a Rebound? – Coin Trading</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>France PM vows to help probe boarding school paedophilia allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Tarver Elementary teacher placed on leave amid misconduct allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Justin Baldoni seeks escape as Blake Lively legal drama heats up</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>DOJ files motion to dismiss charges against NYC mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>DOGE wins access to sensitive Labor Department, HHS and CFPB data from federal judge</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>APLT Deadline: Rosen Law Firm Urges Applied Therapeutics, Inc. (NASDAQ: APLT) Investors to Contact the Firm for Information About Their Rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TMDX INVESTOR ALERT: Robbins Geller Rudman &amp; Dowd LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>New Lawsuit Challenges Starbucks’ DEI Policy – 5 Keys to Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Immigration firm owner arrested for fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Infosys Faces Backlash After Mass Layoffs Of Trainees</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Over $1.4 million embezzled from Hardware Sales in Bellingham</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>BT is DOWN: thousands of customers report internet outages</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Principal of top Pretoria school to face six charges of misconduct at disciplinary hearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Lawsuit on Gender Dysphoria Classification Won't Affect Student Disability Services in South Dakota</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Sexual Assault Lawsuit Against Jay-Z And Diddy Dropped By Jane Doe</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Religious Organizations Including Jews, Catholics, Mennonites, File Lawsuit To Prevent Immigration Raids In Houses Of Worship</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>March 31, 2025 Deadline: Contact The Gross Law Firm to Join Class Action Suit Against GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Cedar City Man Arrested Following Multiple Allegations of Sexual Assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Man Charged in CEO's Death Posts Thanks on New Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Video DOJ files motion to dismiss charges against NYC mayor</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Ford, 13 other state AGs, file suit to strip Musk of executive access</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>NOVELIST, MUSICIAN AND PIONEER HITS NEW MILESTONE - 80-YEAR-OLD RICK BLEIWEISS SAYS "DREAM BIGGER"</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Pantera Founder Faces $850M Tax Investigation: Puerto Rico Tax Haven in the Crosshairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Jay-Z's Lawyer Issues Statement After Tony Buzbee Drops Hov's Sexual Assault Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Coast Guard hit with data breach, impacting pay for more than 1,100 members</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Deputy accused of misconduct with inmate at St. Louis Justice Center</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Judge blocks CFPB firings amid Treasury labor union lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Layoffs halted at CFPB for now as judge considers union’s lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>FMC Purchasers Have Opportunity to Lead FMC Corporation Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Burton’s Udoka Godwin-Malife suffers alleged racist abuse at Bristol Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>François Bayrou battles to contain scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>INVESTOR ALERT: Class Action Lawsuit Filed on Behalf of FMC</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>French PM vows to help probe boarding school abuse allegations, repeats he was 'not aware'</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Ivan Ayuso sentenced to five years for embezzling over $1M from GOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ED facilitates restitution of 31 cr properties to SBI in PMLA case</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>CDK Global files lawsuit against Tekion over alleged cyber hacking campaign</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>$HAREHOLDER ALERT: The M&amp;A Class Action Firm Continues To Investigate The Merger - EVGR, QTRX, RKDA, EBTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Investment Fraud Suit Brought By Brokers Blocked By The Supremes</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Investment Advisor Gets More Than Five Years in Prison for Securities Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Bank General Manager Arrested for Siphoning Rs 122 Crore</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>New lawsuit seeks to limit Alaska Native tribes’ authority, stop Eklutna gambling hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>TGT Investors Have Opportunity to Lead Target Corporation Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Law firm ordered to pay £30k after falling foul of money laundering risk rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Investors in ModivCare Inc. Should Contact The Gross Law Firm Before March 31, 2025 to Discuss Your Rights - MODV</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>The Gross Law Firm Reminds Shareholders of a Lead Plaintiff Deadline of March 18, 2025 in Block, Inc. Lawsuit – XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>KE Arms, Brownells, And Others Sued By Anti-AR-15 Investor [UPDATE: VICTORY]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Hamilton lawmaker files suit against ‘Big Tobacco’ for flouting law</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp; Check, LLP Encourages Grocery Outlet Holding Corp. Investors with Losses to Contact the Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Proposed Smithsonian Italian American Museum Rallies National Support as US House Weighs Legislation</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>PPL non-financial customer data involved in 2023 breach, company says</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Probe into a teacher accused of misconduct has lasted more than EIGHT YEARS</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>44 former Move Forward MPs face ethical misconduct charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Suspended Police Chief Convicted of Misconduct and Sexual Assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Chicago pays millions in 2024 to settle police misconduct suits</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Gerard Piqué to Face Court Over Financial Misconduct in Spanish Super Cup Scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Jay-Z Issued A Fiery Statement In Response To The Sexual Assault Lawsuit Against Him Being Dropped</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Property owner prevails in lawsuit over big land sale that fell through</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>At DOGE lawsuit hearing in New York, state attorneys general allege largest data breach in U.S. history</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Pam Bondi faces conservative backlash over Eric Adams 'scandal'</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Mexico threatens US gunmakers with legal action</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Woman drops lawsuit against Jay-Z and Diddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>AP HC adjourns PIL seeking CBI, ED probe against Chandrababu Naidu, ministers</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>MRK Investors Have Opportunity to Lead Merck &amp; Co., Inc. Securities Fraud Lawsuit with the Schall Law Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Dating App Giant Match Group Is Being Sued for Conning Users</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>RIG Deadline: RIG Investors Have Opportunity to Lead Transocean Ltd. Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Jamia displays protesting students’ personal info, removes after backlash</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Man accused of killing United Healthcare CEO issues message to supporters</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Kanye West breaks silence as $250K sex tape scandal resurfaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>NXT Investor Alert: A Securities Fraud Class Action Lawsuit Has Been Filed Against Nextracker Inc. (NXT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>MU Investor Alert: A Securities Fraud Class Action Lawsuit Has Been Filed Against Micron Technology, Inc. (MU)</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>₹50 lakh fund misuse allegations: BJP issues show-cause notice to U.P’s Fatehpur district president</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Russell Brand Shutters Charity Amid Sexual Assault Allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>BGMI Caster Mazy Under Fire: Allegations of Bullying and Mental Harassment Shake the Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Longmont to pursue legal action against contractor for construction defect issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Court Orders Police To Probe Complaint Against Ekta Kapoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Trial attorney on motion to dismiss Mayor Adams case</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Idaho's "Moon" Failed To Become The State's First &amp; Only National Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Alabama analyst breaks down why Cole Adams failed to start this year while predicting a positive 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Block, Inc. (XYZ) Faces Securities Class Action, Regulators</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>City of Abbeville files lawsuit against Calhoun Falls over water contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Vance Faces Backlash Over Embrace of Germany's Far-Right Just Ahead of Election</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Nokia Picks Justin Hotard for CEO as Pekka Lundmark Exits</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Attorney General talks federal funding lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Uber accuses DoorDash of anticompetitive practices in lawsuit By Reuters</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>NEM Investors Have Opportunity to Lead Newmont Corporation Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>REGN Investors Have Opportunity to Lead Regeneron Pharmaceuticals, Inc. Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Lone Star superintendent alerts parents and employees of embezzlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Court Orders Police Probe Into Complaint Against Ekta Kapoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Starbucks APAC VP of product and marketing departs after 12 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Attorney disbarred for sexual relations with three ‘vulnerable’ clients</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>CBSE Board rejects claims of paper leak on social media, calls them baseless</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>CCSD superintendent candidate fired from previous position as CEO of Chicago schools - KLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Mrs director Arati Kadav on backlash over missing credits: Glad it was called out</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>US DOGE seeks access to IRS system housing sensitive taxpayer data: report</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Fake Doctor Scandal: Pennsylvania Man Faces Felony Charges for Fraud and Endangering Patients</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Middletown woman guilty of stealing $65K to pay restitution from previous theft scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Arkansas man expected to pay restitution in embezzlement case</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Lawsuit filed over brawl at Thornton Township meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Voting Rights Lawsuit Filed Against Keller ISD</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>A Celebrity Scandal Involving Chicken</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Legal firm files lawsuit against Keller ISD, alleges violations of Voting Rights Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Justin Baldoni’s lawyer denounces Blake Lively’s ‘revoltingly false’ allegations: ‘Will fight harder for voiceless…’</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Delegate: Veteran disability claims could be jeopardized by scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Idle Muse Theatre Company Presents “The School For Scandal”</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Guernsey healthcare group 'truly sorry' about misconduct doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>‘Players deserve better!’ – Furious darts star issues statement on playing conditions at tournament...</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Micah Parsons issues statement on Jerry Jones that could put him in hot water with Cowboys fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>City Councilor Accuses School Superintendent of Sexual Harassment</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>MU INVESTOR ALERT: Robbins Geller Rudman &amp; Dowd LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>SMTC INVESTOR ALERT: Semtech Investigated for Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Prattville woman charged with embezzlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>XRP News Today: Legal Battle and ETF Speculation Fuel Market Volatility; BTC Hovers at $96K</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Grieving mother plans legal action after the death of her son</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Mother taking legal action after son's death</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Zanzou threatens legal action against bouncers</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Whirlpool Corporation Welcomes John Morikis to Board of Directors</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Morehouse College Honors Operation HOPE Chairman and CEO John Hope Bryant with Prestigious "Candle Award"</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Mobicom Corporation Partners with Circles to Elevate Customer Experience with AI-Powered Digital Innovation Platform Xplore</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Kerem Albayrak Expands OPAC Global to Tel Aviv, Strengthening Financial Security and Asset Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Govt failed to ensure civilian authority: Fazl</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>DOGE Seeks Access to IRS System That Houses Sensitive Taxpayer Data, Sources Said</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>SIT formed to probe case against Pak man, Cong MP Gogoi says his stand clear over wife's 'ISI links'</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Italy Rejects Claims of Spyware Contract Cancellation Amidst Misuse Allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Petra Diamonds CEO resigns amid earnings drop and covenant breach By Investing.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>New Frisch’s claims Big Boy planning March opening: lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Argentina's President Milei denies role in cryptocurrency scandal as prosecutors launch investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Four New York City deputy mayors resign as Adams scandal continues to fester</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Argentina’s Javier Milei faces fraud allegations over cryptocurrency post</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Financial Misconduct Allegations Rock Shinpoong Pharmaceutical</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>BTS' V and Jungkook triumph over online hate: Taldeok Camp's owner Sojang fined 76 million KRW for defaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>7 more women accuse Ravens’ Justin Tucker of sexual misconduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Mother Of Teen Shot While PBSO Says Gun Was 'Mishandled' Disagrees</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>The Class Action Weekly Wire – Episode 88: Key Trends In Data Breach Class Actions (Podcast)</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Former Pc jailed for 15 months over inappropriate conduct towards two women</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Brandon Sklenar Says He’s “Team It Ends With Us” After Gayle King Asks Where His Loyalties Lie In Lively-Baldoni Legal Battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Lawsuit against Jay-Z is dismissed without a settlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>PTI rejects govt claims over economic turnaround</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>LG TO SHOWCASE EXPANDED "FIT &amp; MAX" KITCHEN SOLUTIONS WITH ZERO CLEARANCE AT KBIS 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Whirlpool Corporation Declares Quarterly Dividend</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Hyundai IONIQ 5 N TA Spec Sets Fastest EV Record at 'Attack Tsukuba 2025'</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Dr. MJ Chung Attends Donation Ceremony Establishing the "MJ Chung Distinguished Chair in Security Studies" at Johns Hopkins University SAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Murapol Real Estate Sued For Nearly 200 Million PLN Amid Contract Dispute</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>French surgeon to go on trial for almost 300 sex assaults</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Aerometrex Director Resigns, Impact on Company Strategy Anticipated</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>DOGE seeks access to highly sensitive taxpayer data at IRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Winthrop Public Schools meets with EPA in fraud investigation into electric school buses</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Attorney accesses texts between prosecutor, coroner's wife amid drug scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Lawsuit filed to block amendment on March election</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Lawsuit Filed To Stop $1B Television City Expansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Uber accuses DoorDash of anticompetitive practices in lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Ekta Kapoor &amp; Lawyers Planning To File 100 Crore Civil Suit Against Individuals Defaming Her Over 2020 Case? Here’s What We Know</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Milei takes full responsibility for $LIBRA scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Women's footy side sensationally breaks away from club after allegations of inequitable treatment - and more c</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Wanderlei Silva, other ex-UFC fighters submit tragic declarations in lawsuit settlement resubmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Widow says gambling regulator ‘not protecting customers’ amid legal action</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Family sues para-transit company after disabled son's alleged assault on bus</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>B.C. addictions doctor resigns, placed on leave over unsanctioned overdose sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>U.S. Attorney of New Mexico: More charges to come in DWI scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Georgia AG faces criticism from parents about involvement in multistate lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>OptumRX responds to Wisconsin family’s lawsuit for asthma death</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Pennsylvania Attorney General’s Office takes over voter registration fraud investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Du Val founder arrested after alleged incident with photographer</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Indiana-based automotive distributor founded by governor ordered to pay millions in EPA settlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>James Wood High School athletic director accused of sending 'self-produced nude photos' to 17-year-old student</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Where does South Carolina stand in the Section 504 lawsuit?</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Sachin Bansal's Navi Technologies defrauded of Rs 14.26 crore by scammers</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Analysis: AGO names Budget Director General suspect in Jiwasraya scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Former Bills Pro Bowler Richie Incognito shares tweet storm regarding 2013 bullying scandal</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>A SWIPING SCANDAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Accused shooter of UnitedHealthcare CEO speaks from jail</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Mexico's President Sheinbaum threatens to take legal action over the Gulf name change</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>More victims possible in alleged father-son fraud scheme spanning Western North Carolina</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Harvey Weinstein sues brother Robert, business associates over $45M loan</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Business owner files civil lawsuit against Town Center Mall owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>KSPI DEADLINE TOMORROW: ROSEN, NATIONAL INVESTOR COUNSEL,</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Woman files discrimination lawsuit after wrongly detained at KCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Fasoo AI-R DLP Safeguards Sensitive Data Amidst Rising Security Risks in Enterprise AI Adoption</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Musk's DOGE team to gain access to sensitive IRS data amid controversy</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Ex-San Jose State employee indicted in alleged purchase fraud scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Lawsuit seeks to block Louisiana constitutional changes before March vote</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>North Carolina lawsuit pushes foster care system to make positive changes</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Parents, educators worried about 504 lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Lawsuit reform bill ‘doesn’t benefit any S.C. citizen,’ attorney says</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Man convicted of scheme that defrauded vulnerable homeowners</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Care or Chaos? Inside the Portsmouth teen center at the heart of abuse allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Justin Tucker Accused by More Women of Sexual Misconduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Criminal Trial of Frank Founder Charlie Javice to Begin Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>The Pension Specialists, Ltd. Data Breach Alert: Issued by Wolf Haldenstein Adler Freeman &amp; Herz LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>GitLab Executives' Ill-Advised AI Push Harmed Company, Says Suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>McKiddy resigns as Electra's football coach due to "lack of confidence" in school board</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Gerard Piqué Faces Legal Proceedings Over Potentially Fraudulent Commission Related to Supercup Relocation to Saudi Arabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Ryan Reynolds pokes fun at legal battle during ‘SNL’ special</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Investigators Searching for More Victims in Fraud Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>CFPB’s new leadership begins staff purge with dozens of employees terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>VIDEO: Lawsuit: Company issued illegal parking tickets on Isle of Palms, Folly Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Former Texas lottery director accused of fraud in new lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Lawsuit seeks to block Louisiana tax amendment from March ballot</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Derek Potts Appointed Co-Lead Class Counsel in Major Class Action Lawsuit Against Winston Weaver Co. Following Devastating Fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>SD parents worried lawsuit endangers disability services</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Community voices concerns about Section 504 lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Jury trial delayed until August in lawsuit accusing Cowboys’ Jerry Jones of sexual assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Richie Incognito Reacts to Dolphins Bullying Scandal Resurgence</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Jay-Z, Beyoncés special night-out turns heads amid allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Colombian soccer federation president arrested after chaotic Copa America final at Hard Rock Stadium</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>ALAR INVESTOR ALERT: Bronstein, Gewirtz and Grossman, LLC Announces that Alarum Technologies Ltd. Investors with Losses Have Opportunity to Lead Class Action Lawsuit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Longview house fire estimated to cause $100,000 in damages</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Possible grease fire causes $100k in damages to Longview home</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>LFP Takes Legal Action Against DAZN Over €35 Million Payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>KT&amp;G Accelerates Leap to 'Global Top-tier' by Reinforcing Global Operations-centered Core Competitiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Opinion: MPS failed to keep our kids safe. And we should all be concerned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Mother of Club Q shooter files lawsuit against Colorado Springs Police Officers</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Mother of Club Q shooter files civil rights lawsuit against CSPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Child safety concerns arise as daycare faces allegations of sex assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Innovative Industrial Properties, Inc. Class Action: Levi &amp; Korsinsky Reminds Innovative Industrial Properties Investors of the Pending Class Action Lawsuit with a Lead Plaintiff Deadline of March 18, 2025 - IIPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Justin Bieber Reportedly Under Constant Watch Amid Alleged Substance Abuse As Blind Item Claims His Mother Wants To 'Milk as Much Money' From Him</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Fall River woman admits to embezzling $87K in Social Security benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>LG Display Targets Gaming Market with OLED Monitor Panel featuring World's Best Picture Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Regeneron Pharmaceuticals (REGN) Faces Securities Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Stephen 'tWitch' Boss' Family Seeks Legal Counsel Amid Wife Allison Holker's Controversial Memoir Release</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Body cam video in lawsuit shows ‘one of the most dangerous police officers’</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Fontainebleau in Miami Beach faces lawsuit following 2021 sexual assault case</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Lawsuit: Former Camden Military Academy dean engaged in ‘predatory’ sexual conduct with student</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Lawsuit aims to stop special election on constitution changes amid new tax law</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>"It almost destroyed my life" says NI man defrauded of more than £200,000 in romance scam</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>'Bright future in NBA': Attorney describes sexual assault allegations as 'horseplay' in NMSU case</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Actor Park Hee-soon denies tax evasion allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Libra Memecoin Founder Defends Project Amid Insider Trading Allegations</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -1,49 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21000" windowHeight="10020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Titles</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill/>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7E4BC"/>
-        <bgColor rgb="00D7E4BC"/>
+        <fgColor rgb="FFD7E4BC"/>
+        <bgColor rgb="FFD7E4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -52,93 +418,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,70 +1023,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="112" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Titles</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Guy Pearce Said Kevin Spacey 'Targeted' Him and 'Broke Down' After Allegations</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Urgent need for clear policy on sexual harassment in legal sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Seven more massage therapists accuse Ravens' Tucker of sexually inappropriate conduct, report says</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Huge update on Jerry Jones trial with Cowboys owner accused of kissing woman on mouth and forcibly grabbing he</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Report: Seven more accuse Ravens K Justin Tucker of sexual misconduct</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/negative_titles.xlsx
+++ b/negative_titles.xlsx
@@ -1,49 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28785" windowHeight="10620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Titles</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill/>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7E4BC"/>
-        <bgColor rgb="00D7E4BC"/>
+        <fgColor rgb="FFD7E4BC"/>
+        <bgColor rgb="FFD7E4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -52,93 +418,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,133 +1023,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="144" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="144" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Titles</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sirens: Rocks thrown through windows of home, city building; sexual misconduct reported at Green Hill School; sexual assault of child reported</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nike likely averts trial by settling 2018 sex discrimination lawsuit</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Report: Seven more accuse Ravens K Justin Tucker of sexual misconduct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Man Accused of Sexual Assault</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jury awards $138M to victims of sexual harassment, assault by Birmingham business owner</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HFD Battalion Chief on leave following sexual assault arrest</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Judge nixes Holyoke Schools' request for sanctions in sexual misconduct suit</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Former teacher accused of sexual misconduct with student released from jail in Orange County</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Civil trial: Woman alleges JFL founder Rozon sexually assaulted her, her sister and their mother</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Allen Law Firm in Bellingham owes $1.3 million following sexual harassment reports</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Florida streamer Destiny sued over cyber sexual harassment: court documents</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Abuse scandal rocks Argentine sailing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Coral Springs Teacher Arrested for Alleged Sexual Misconduct with Student at J.P. Taravella High School</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Warwick settles sexual harassment lawsuit filed by former worker for $600K</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>